--- a/detailed_channel_info/CACNA1G_RAT.xlsx
+++ b/detailed_channel_info/CACNA1G_RAT.xlsx
@@ -131,9 +131,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>REFERENCES:</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>http://www.guidetopharmacology.org/GRAC/ObjectDisplayForward?objectId=535&amp;familyId=80&amp;familyType=IC</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -672,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="80" x14ac:dyDescent="0.2">
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -688,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -818,37 +818,37 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
